--- a/Search-excel/firewall-zone.xlsx
+++ b/Search-excel/firewall-zone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5aa329b81cee170e/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1293822-0641-499D-9925-8B1DE2F33435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{A1293822-0641-499D-9925-8B1DE2F33435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3865D74F-EF4E-48C9-9CA9-DCB3D6B82D70}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{F55F57DB-3509-4765-ABE1-0569F6CEC171}"/>
   </bookViews>
@@ -50,10 +50,10 @@
     <t>inside</t>
   </si>
   <si>
-    <t>10.1.1.1</t>
-  </si>
-  <si>
     <t>10.2.2.2</t>
+  </si>
+  <si>
+    <t>10.1.2.0/24</t>
   </si>
 </sst>
 </file>
@@ -106,6 +106,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,10 +412,13 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -426,7 +433,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -434,7 +441,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Search-excel/firewall-zone.xlsx
+++ b/Search-excel/firewall-zone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5aa329b81cee170e/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{A1293822-0641-499D-9925-8B1DE2F33435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3865D74F-EF4E-48C9-9CA9-DCB3D6B82D70}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{A1293822-0641-499D-9925-8B1DE2F33435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52203C28-854D-4119-B4D6-6DF161C6F71A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{F55F57DB-3509-4765-ABE1-0569F6CEC171}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>zone</t>
   </si>
@@ -50,10 +50,22 @@
     <t>inside</t>
   </si>
   <si>
-    <t>10.2.2.2</t>
-  </si>
-  <si>
     <t>10.1.2.0/24</t>
+  </si>
+  <si>
+    <t>DMZ</t>
+  </si>
+  <si>
+    <t>10.4.4.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outside </t>
+  </si>
+  <si>
+    <t>10.3.0.0/16</t>
+  </si>
+  <si>
+    <t>10.2.2.0/24</t>
   </si>
 </sst>
 </file>
@@ -409,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC446CC-B341-4B94-9148-822D7E687379}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,7 +445,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -441,7 +453,23 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Search-excel/firewall-zone.xlsx
+++ b/Search-excel/firewall-zone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5aa329b81cee170e/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{A1293822-0641-499D-9925-8B1DE2F33435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52203C28-854D-4119-B4D6-6DF161C6F71A}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{A1293822-0641-499D-9925-8B1DE2F33435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57D1C986-3BC7-466C-BD2A-1998C30B6FCD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{F55F57DB-3509-4765-ABE1-0569F6CEC171}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>zone</t>
   </si>
@@ -56,16 +56,22 @@
     <t>DMZ</t>
   </si>
   <si>
-    <t>10.4.4.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outside </t>
-  </si>
-  <si>
     <t>10.3.0.0/16</t>
   </si>
   <si>
     <t>10.2.2.0/24</t>
+  </si>
+  <si>
+    <t>firewall</t>
+  </si>
+  <si>
+    <t>Internet-Edge-FW</t>
+  </si>
+  <si>
+    <t>10.4.4.0/24</t>
+  </si>
+  <si>
+    <t>internal-FW</t>
   </si>
 </sst>
 </file>
@@ -421,55 +427,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC446CC-B341-4B94-9148-822D7E687379}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
+      <c r="C5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
